--- a/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C0147A-4167-4330-AB88-64B88AA3655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C604F7-20EB-4E88-867D-31E9EC47A6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4ADE3ADF-CDB6-43D6-B9B9-1289D10D3921}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{625C28D3-78E5-4C99-9F99-842C59504664}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="265">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>64,7%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>54,97%</t>
   </si>
   <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
   </si>
   <si>
     <t>59,96%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>27,6%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
   </si>
   <si>
     <t>31,96%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>7,71%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -173,670 +173,661 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214FDE49-740E-4438-8568-27F0846CB636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D8CA2A-FD7C-4C1D-AB95-426C6909F1B3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1752,10 +1743,10 @@
         <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -1764,13 +1755,13 @@
         <v>125036</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1776,13 @@
         <v>15167</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1800,13 +1791,13 @@
         <v>13293</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -1815,13 +1806,13 @@
         <v>28460</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1868,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1880,13 @@
         <v>261753</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -1904,13 +1895,13 @@
         <v>211749</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>525</v>
@@ -1919,13 +1910,13 @@
         <v>473502</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1931,13 @@
         <v>203646</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>365</v>
@@ -1955,13 +1946,13 @@
         <v>239889</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>586</v>
@@ -1970,13 +1961,13 @@
         <v>443535</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,13 +1982,13 @@
         <v>73389</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>161</v>
@@ -2006,13 +1997,13 @@
         <v>105963</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -2021,13 +2012,13 @@
         <v>179352</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2033,13 @@
         <v>17400</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -2057,13 +2048,13 @@
         <v>25044</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -2072,13 +2063,13 @@
         <v>42444</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,7 +2125,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2146,13 +2137,13 @@
         <v>313915</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>308</v>
@@ -2161,13 +2152,13 @@
         <v>211329</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>552</v>
@@ -2176,13 +2167,13 @@
         <v>525245</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2188,13 @@
         <v>293007</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>545</v>
@@ -2212,13 +2203,13 @@
         <v>342895</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>849</v>
@@ -2227,13 +2218,13 @@
         <v>635901</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2239,13 @@
         <v>102738</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -2263,13 +2254,13 @@
         <v>163902</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>346</v>
@@ -2278,13 +2269,13 @@
         <v>266640</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2290,13 @@
         <v>13294</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -2314,13 +2305,13 @@
         <v>26555</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -2329,13 +2320,13 @@
         <v>39849</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2382,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2403,13 +2394,13 @@
         <v>215051</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>257</v>
@@ -2418,13 +2409,13 @@
         <v>161062</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>482</v>
@@ -2433,13 +2424,13 @@
         <v>376113</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2445,13 @@
         <v>268258</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>454</v>
@@ -2469,13 +2460,13 @@
         <v>261156</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>763</v>
@@ -2484,13 +2475,13 @@
         <v>529415</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2496,13 @@
         <v>98983</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -2520,13 +2511,13 @@
         <v>145335</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>356</v>
@@ -2535,13 +2526,13 @@
         <v>244318</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2547,13 @@
         <v>17266</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>43</v>
@@ -2571,13 +2562,13 @@
         <v>27395</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
@@ -2586,13 +2577,13 @@
         <v>44661</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,7 +2639,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2660,13 +2651,13 @@
         <v>236379</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>385</v>
@@ -2675,13 +2666,13 @@
         <v>213627</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>722</v>
@@ -2690,13 +2681,13 @@
         <v>450005</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2702,13 @@
         <v>322917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>799</v>
@@ -2726,13 +2717,13 @@
         <v>538435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>1280</v>
@@ -2741,13 +2732,13 @@
         <v>861351</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2753,13 @@
         <v>121311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>457</v>
@@ -2777,13 +2768,13 @@
         <v>239700</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>643</v>
@@ -2792,13 +2783,13 @@
         <v>361011</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2804,13 @@
         <v>13573</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -2828,13 +2819,13 @@
         <v>27952</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>72</v>
@@ -2843,13 +2834,13 @@
         <v>41525</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2908,13 @@
         <v>1460097</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>1530</v>
@@ -2932,13 +2923,13 @@
         <v>1192067</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>2815</v>
@@ -2947,13 +2938,13 @@
         <v>2652164</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,16 +2956,16 @@
         <v>1496</v>
       </c>
       <c r="D35" s="7">
-        <v>1373796</v>
+        <v>1373795</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>2415</v>
@@ -2983,13 +2974,13 @@
         <v>1696237</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>3911</v>
@@ -2998,13 +2989,13 @@
         <v>3070033</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,16 +3007,16 @@
         <v>513</v>
       </c>
       <c r="D36" s="7">
-        <v>464558</v>
+        <v>464557</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>1213</v>
@@ -3034,13 +3025,13 @@
         <v>782181</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>1726</v>
@@ -3049,13 +3040,13 @@
         <v>1246739</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3061,13 @@
         <v>76701</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>184</v>
@@ -3085,13 +3076,13 @@
         <v>125037</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>257</v>
@@ -3100,13 +3091,13 @@
         <v>201738</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3109,7 @@
         <v>3367</v>
       </c>
       <c r="D38" s="7">
-        <v>3375151</v>
+        <v>3375150</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3162,7 +3153,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C604F7-20EB-4E88-867D-31E9EC47A6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{988D560F-2464-43E1-98EF-1BA1616BF322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{625C28D3-78E5-4C99-9F99-842C59504664}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B99B26C-3F28-4316-A67A-E9A57CD16D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D8CA2A-FD7C-4C1D-AB95-426C6909F1B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71211F41-EC67-4DCC-8C75-FE06BEEA6E85}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{988D560F-2464-43E1-98EF-1BA1616BF322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1158B6AA-F630-427D-89C7-7336A8CA4F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B99B26C-3F28-4316-A67A-E9A57CD16D6B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B15D9F1A-F226-4D51-8FC7-10B2B8DBFBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="268">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>64,7%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>54,97%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>59,96%</t>
   </si>
   <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>27,6%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
   </si>
   <si>
     <t>31,96%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,700 +134,709 @@
     <t>7,71%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>7,49%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1242,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71211F41-EC67-4DCC-8C75-FE06BEEA6E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D80798B-3C63-4C70-8C23-57E59847A706}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1743,10 +1752,10 @@
         <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -1755,13 +1764,13 @@
         <v>125036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,13 +1785,13 @@
         <v>15167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -1791,13 +1800,13 @@
         <v>13293</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -1806,13 +1815,13 @@
         <v>28460</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1877,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1880,13 +1889,13 @@
         <v>261753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -1895,13 +1904,13 @@
         <v>211749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>525</v>
@@ -1910,13 +1919,13 @@
         <v>473502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1940,13 @@
         <v>203646</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>365</v>
@@ -1946,13 +1955,13 @@
         <v>239889</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>586</v>
@@ -1961,13 +1970,13 @@
         <v>443535</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1991,13 @@
         <v>73389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>161</v>
@@ -1997,13 +2006,13 @@
         <v>105963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -2012,13 +2021,13 @@
         <v>179352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,13 +2042,13 @@
         <v>17400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -2048,13 +2057,13 @@
         <v>25044</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -2063,13 +2072,13 @@
         <v>42444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,7 +2134,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2137,13 +2146,13 @@
         <v>313915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>308</v>
@@ -2152,13 +2161,13 @@
         <v>211329</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>552</v>
@@ -2167,13 +2176,13 @@
         <v>525245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2197,13 @@
         <v>293007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>545</v>
@@ -2203,13 +2212,13 @@
         <v>342895</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>849</v>
@@ -2218,13 +2227,13 @@
         <v>635901</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2248,13 @@
         <v>102738</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -2254,13 +2263,13 @@
         <v>163902</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>346</v>
@@ -2269,13 +2278,13 @@
         <v>266640</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,13 +2299,13 @@
         <v>13294</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -2305,13 +2314,13 @@
         <v>26555</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -2320,13 +2329,13 @@
         <v>39849</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,7 +2391,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2394,13 +2403,13 @@
         <v>215051</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>257</v>
@@ -2409,13 +2418,13 @@
         <v>161062</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>482</v>
@@ -2424,13 +2433,13 @@
         <v>376113</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2454,13 @@
         <v>268258</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>454</v>
@@ -2460,13 +2469,13 @@
         <v>261156</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>763</v>
@@ -2475,13 +2484,13 @@
         <v>529415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2505,13 @@
         <v>98983</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -2511,13 +2520,13 @@
         <v>145335</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>356</v>
@@ -2526,13 +2535,13 @@
         <v>244318</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2556,13 @@
         <v>17266</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>43</v>
@@ -2562,13 +2571,13 @@
         <v>27395</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
@@ -2577,13 +2586,13 @@
         <v>44661</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2648,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2651,13 +2660,13 @@
         <v>236379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>385</v>
@@ -2666,13 +2675,13 @@
         <v>213627</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>722</v>
@@ -2681,13 +2690,13 @@
         <v>450005</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2711,13 @@
         <v>322917</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>799</v>
@@ -2717,13 +2726,13 @@
         <v>538435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>1280</v>
@@ -2732,13 +2741,13 @@
         <v>861351</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2762,13 @@
         <v>121311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>457</v>
@@ -2768,13 +2777,13 @@
         <v>239700</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>643</v>
@@ -2783,13 +2792,13 @@
         <v>361011</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2813,13 @@
         <v>13573</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -2819,13 +2828,13 @@
         <v>27952</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>72</v>
@@ -2834,13 +2843,13 @@
         <v>41525</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2917,13 @@
         <v>1460097</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>1530</v>
@@ -2923,13 +2932,13 @@
         <v>1192067</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>2815</v>
@@ -2938,13 +2947,13 @@
         <v>2652164</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,16 +2965,16 @@
         <v>1496</v>
       </c>
       <c r="D35" s="7">
-        <v>1373795</v>
+        <v>1373796</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>2415</v>
@@ -2974,13 +2983,13 @@
         <v>1696237</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>3911</v>
@@ -2989,13 +2998,13 @@
         <v>3070033</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,16 +3016,16 @@
         <v>513</v>
       </c>
       <c r="D36" s="7">
-        <v>464557</v>
+        <v>464558</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>1213</v>
@@ -3025,13 +3034,13 @@
         <v>782181</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>1726</v>
@@ -3040,13 +3049,13 @@
         <v>1246739</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3070,13 @@
         <v>76701</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>184</v>
@@ -3076,13 +3085,13 @@
         <v>125037</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>257</v>
@@ -3091,13 +3100,13 @@
         <v>201738</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3118,7 @@
         <v>3367</v>
       </c>
       <c r="D38" s="7">
-        <v>3375150</v>
+        <v>3375151</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3153,7 +3162,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1158B6AA-F630-427D-89C7-7336A8CA4F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81500A9D-53CC-4B5D-A25F-318E2A583276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B15D9F1A-F226-4D51-8FC7-10B2B8DBFBE9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{619D3CDF-48B6-436D-BF50-C5D1FAC1EF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="304">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -65,778 +65,886 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,8 +1359,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D80798B-3C63-4C70-8C23-57E59847A706}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E89A88E-1CB1-4E81-A5BC-6F956EBD1E40}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1372,7 +1480,7 @@
         <v>111</v>
       </c>
       <c r="D4" s="7">
-        <v>241882</v>
+        <v>251007</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1387,7 +1495,7 @@
         <v>112</v>
       </c>
       <c r="I4" s="7">
-        <v>195131</v>
+        <v>169652</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1402,7 +1510,7 @@
         <v>223</v>
       </c>
       <c r="N4" s="7">
-        <v>437013</v>
+        <v>420659</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1423,7 +1531,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>103184</v>
+        <v>117478</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1438,7 +1546,7 @@
         <v>69</v>
       </c>
       <c r="I5" s="7">
-        <v>113457</v>
+        <v>103060</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1453,7 +1561,7 @@
         <v>117</v>
       </c>
       <c r="N5" s="7">
-        <v>216640</v>
+        <v>220539</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1474,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>28810</v>
+        <v>27291</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1489,7 +1597,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>41570</v>
+        <v>35978</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1504,7 +1612,7 @@
         <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>70381</v>
+        <v>63270</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1540,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>4799</v>
+        <v>4510</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1555,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>4799</v>
+        <v>4510</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1576,7 +1684,7 @@
         <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>373876</v>
+        <v>395777</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1591,7 +1699,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1606,7 +1714,7 @@
         <v>378</v>
       </c>
       <c r="N8" s="7">
-        <v>728832</v>
+        <v>708977</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1629,7 +1737,7 @@
         <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>191118</v>
+        <v>183990</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1644,7 +1752,7 @@
         <v>183</v>
       </c>
       <c r="I9" s="7">
-        <v>199169</v>
+        <v>178353</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1659,7 +1767,7 @@
         <v>311</v>
       </c>
       <c r="N9" s="7">
-        <v>390286</v>
+        <v>362343</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1680,7 +1788,7 @@
         <v>133</v>
       </c>
       <c r="D10" s="7">
-        <v>182784</v>
+        <v>186265</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1695,7 +1803,7 @@
         <v>183</v>
       </c>
       <c r="I10" s="7">
-        <v>200406</v>
+        <v>243447</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1710,7 +1818,7 @@
         <v>316</v>
       </c>
       <c r="N10" s="7">
-        <v>383190</v>
+        <v>429711</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1731,7 +1839,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>39327</v>
+        <v>38373</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1746,7 +1854,7 @@
         <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>85709</v>
+        <v>77992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1761,7 +1869,7 @@
         <v>116</v>
       </c>
       <c r="N11" s="7">
-        <v>125036</v>
+        <v>116366</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1782,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>15167</v>
+        <v>14919</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1797,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>13293</v>
+        <v>11712</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1812,7 +1920,7 @@
         <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>28460</v>
+        <v>26631</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1833,7 +1941,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1848,7 +1956,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1863,7 +1971,7 @@
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1886,7 +1994,7 @@
         <v>240</v>
       </c>
       <c r="D14" s="7">
-        <v>261753</v>
+        <v>250711</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1901,7 +2009,7 @@
         <v>285</v>
       </c>
       <c r="I14" s="7">
-        <v>211749</v>
+        <v>194126</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1916,7 +2024,7 @@
         <v>525</v>
       </c>
       <c r="N14" s="7">
-        <v>473502</v>
+        <v>444838</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1937,7 +2045,7 @@
         <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>203646</v>
+        <v>198722</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1952,7 +2060,7 @@
         <v>365</v>
       </c>
       <c r="I15" s="7">
-        <v>239889</v>
+        <v>226732</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1967,7 +2075,7 @@
         <v>586</v>
       </c>
       <c r="N15" s="7">
-        <v>443535</v>
+        <v>425454</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1988,7 +2096,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>73389</v>
+        <v>68897</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -2003,7 +2111,7 @@
         <v>161</v>
       </c>
       <c r="I16" s="7">
-        <v>105963</v>
+        <v>97583</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -2018,7 +2126,7 @@
         <v>230</v>
       </c>
       <c r="N16" s="7">
-        <v>179352</v>
+        <v>166481</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -2039,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>17400</v>
+        <v>16726</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -2054,7 +2162,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>25044</v>
+        <v>23239</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -2069,7 +2177,7 @@
         <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>42444</v>
+        <v>39966</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -2090,7 +2198,7 @@
         <v>545</v>
       </c>
       <c r="D18" s="7">
-        <v>556188</v>
+        <v>535057</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2105,7 +2213,7 @@
         <v>845</v>
       </c>
       <c r="I18" s="7">
-        <v>582645</v>
+        <v>541681</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2120,7 +2228,7 @@
         <v>1390</v>
       </c>
       <c r="N18" s="7">
-        <v>1138833</v>
+        <v>1076738</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2143,7 +2251,7 @@
         <v>244</v>
       </c>
       <c r="D19" s="7">
-        <v>313915</v>
+        <v>494552</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>126</v>
@@ -2158,7 +2266,7 @@
         <v>308</v>
       </c>
       <c r="I19" s="7">
-        <v>211329</v>
+        <v>193292</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>129</v>
@@ -2173,7 +2281,7 @@
         <v>552</v>
       </c>
       <c r="N19" s="7">
-        <v>525245</v>
+        <v>687844</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>132</v>
@@ -2194,7 +2302,7 @@
         <v>304</v>
       </c>
       <c r="D20" s="7">
-        <v>293007</v>
+        <v>283801</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>135</v>
@@ -2209,7 +2317,7 @@
         <v>545</v>
       </c>
       <c r="I20" s="7">
-        <v>342895</v>
+        <v>343967</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>138</v>
@@ -2224,7 +2332,7 @@
         <v>849</v>
       </c>
       <c r="N20" s="7">
-        <v>635901</v>
+        <v>627768</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>141</v>
@@ -2245,7 +2353,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="7">
-        <v>102738</v>
+        <v>95852</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>144</v>
@@ -2260,7 +2368,7 @@
         <v>243</v>
       </c>
       <c r="I21" s="7">
-        <v>163902</v>
+        <v>148597</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>147</v>
@@ -2275,7 +2383,7 @@
         <v>346</v>
       </c>
       <c r="N21" s="7">
-        <v>266640</v>
+        <v>244450</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>150</v>
@@ -2296,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>13294</v>
+        <v>12576</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>153</v>
@@ -2311,7 +2419,7 @@
         <v>41</v>
       </c>
       <c r="I22" s="7">
-        <v>26555</v>
+        <v>24660</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>156</v>
@@ -2326,7 +2434,7 @@
         <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>39849</v>
+        <v>37236</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>159</v>
@@ -2347,7 +2455,7 @@
         <v>664</v>
       </c>
       <c r="D23" s="7">
-        <v>722954</v>
+        <v>886782</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2362,7 +2470,7 @@
         <v>1137</v>
       </c>
       <c r="I23" s="7">
-        <v>744681</v>
+        <v>710516</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2377,7 +2485,7 @@
         <v>1801</v>
       </c>
       <c r="N23" s="7">
-        <v>1467635</v>
+        <v>1597298</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2400,7 +2508,7 @@
         <v>225</v>
       </c>
       <c r="D24" s="7">
-        <v>215051</v>
+        <v>199152</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>163</v>
@@ -2415,7 +2523,7 @@
         <v>257</v>
       </c>
       <c r="I24" s="7">
-        <v>161062</v>
+        <v>147138</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>166</v>
@@ -2430,7 +2538,7 @@
         <v>482</v>
       </c>
       <c r="N24" s="7">
-        <v>376113</v>
+        <v>346290</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>169</v>
@@ -2451,7 +2559,7 @@
         <v>309</v>
       </c>
       <c r="D25" s="7">
-        <v>268258</v>
+        <v>255090</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>172</v>
@@ -2466,7 +2574,7 @@
         <v>454</v>
       </c>
       <c r="I25" s="7">
-        <v>261156</v>
+        <v>241967</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>175</v>
@@ -2481,7 +2589,7 @@
         <v>763</v>
       </c>
       <c r="N25" s="7">
-        <v>529415</v>
+        <v>497056</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>178</v>
@@ -2502,7 +2610,7 @@
         <v>111</v>
       </c>
       <c r="D26" s="7">
-        <v>98983</v>
+        <v>90803</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>181</v>
@@ -2517,7 +2625,7 @@
         <v>245</v>
       </c>
       <c r="I26" s="7">
-        <v>145335</v>
+        <v>131854</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>184</v>
@@ -2532,7 +2640,7 @@
         <v>356</v>
       </c>
       <c r="N26" s="7">
-        <v>244318</v>
+        <v>222657</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>187</v>
@@ -2553,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="7">
-        <v>17266</v>
+        <v>15646</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>190</v>
@@ -2568,31 +2676,31 @@
         <v>43</v>
       </c>
       <c r="I27" s="7">
-        <v>27395</v>
+        <v>24997</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
       </c>
       <c r="N27" s="7">
-        <v>44661</v>
+        <v>40644</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2712,7 @@
         <v>662</v>
       </c>
       <c r="D28" s="7">
-        <v>599558</v>
+        <v>560691</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2619,7 +2727,7 @@
         <v>999</v>
       </c>
       <c r="I28" s="7">
-        <v>594949</v>
+        <v>545956</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2634,7 +2742,7 @@
         <v>1661</v>
       </c>
       <c r="N28" s="7">
-        <v>1194507</v>
+        <v>1106647</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2648,55 +2756,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="D29" s="7">
-        <v>236379</v>
+        <v>132673</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>231</v>
+      </c>
+      <c r="I29" s="7">
+        <v>116210</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H29" s="7">
-        <v>385</v>
-      </c>
-      <c r="I29" s="7">
-        <v>213627</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>433</v>
+      </c>
+      <c r="N29" s="7">
+        <v>248883</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M29" s="7">
-        <v>722</v>
-      </c>
-      <c r="N29" s="7">
-        <v>450005</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,49 +2813,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>481</v>
+        <v>265</v>
       </c>
       <c r="D30" s="7">
-        <v>322917</v>
+        <v>171830</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>380</v>
+      </c>
+      <c r="I30" s="7">
+        <v>392160</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H30" s="7">
-        <v>799</v>
-      </c>
-      <c r="I30" s="7">
-        <v>538435</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>645</v>
+      </c>
+      <c r="N30" s="7">
+        <v>563990</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M30" s="7">
-        <v>1280</v>
-      </c>
-      <c r="N30" s="7">
-        <v>861351</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,49 +2864,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="D31" s="7">
-        <v>121311</v>
+        <v>56685</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>189</v>
+      </c>
+      <c r="I31" s="7">
+        <v>87193</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="7">
-        <v>457</v>
-      </c>
-      <c r="I31" s="7">
-        <v>239700</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>282</v>
+      </c>
+      <c r="N31" s="7">
+        <v>143877</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M31" s="7">
-        <v>643</v>
-      </c>
-      <c r="N31" s="7">
-        <v>361011</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,40 +2915,40 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>13573</v>
+        <v>6168</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>27</v>
+      </c>
+      <c r="I32" s="7">
+        <v>12806</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H32" s="7">
-        <v>53</v>
-      </c>
-      <c r="I32" s="7">
-        <v>27952</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>230</v>
       </c>
       <c r="M32" s="7">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="N32" s="7">
-        <v>41525</v>
+        <v>18974</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>231</v>
@@ -2858,10 +2966,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1023</v>
+        <v>569</v>
       </c>
       <c r="D33" s="7">
-        <v>694179</v>
+        <v>367356</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2873,10 +2981,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1694</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1019714</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2888,10 +2996,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2717</v>
+        <v>1396</v>
       </c>
       <c r="N33" s="7">
-        <v>1713893</v>
+        <v>975724</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2905,31 +3013,31 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1285</v>
+        <v>135</v>
       </c>
       <c r="D34" s="7">
-        <v>1460097</v>
+        <v>88232</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="H34" s="7">
-        <v>1530</v>
+        <v>154</v>
       </c>
       <c r="I34" s="7">
-        <v>1192067</v>
+        <v>78702</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>237</v>
@@ -2941,10 +3049,10 @@
         <v>239</v>
       </c>
       <c r="M34" s="7">
-        <v>2815</v>
+        <v>289</v>
       </c>
       <c r="N34" s="7">
-        <v>2652164</v>
+        <v>166934</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>240</v>
@@ -2953,7 +3061,7 @@
         <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,40 +3070,40 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1496</v>
+        <v>216</v>
       </c>
       <c r="D35" s="7">
-        <v>1373796</v>
+        <v>131366</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
-        <v>2415</v>
+        <v>419</v>
       </c>
       <c r="I35" s="7">
-        <v>1696237</v>
+        <v>203196</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>247</v>
       </c>
       <c r="M35" s="7">
-        <v>3911</v>
+        <v>635</v>
       </c>
       <c r="N35" s="7">
-        <v>3070033</v>
+        <v>334561</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>248</v>
@@ -3013,10 +3121,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>513</v>
+        <v>93</v>
       </c>
       <c r="D36" s="7">
-        <v>464558</v>
+        <v>54321</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>251</v>
@@ -3028,34 +3136,34 @@
         <v>253</v>
       </c>
       <c r="H36" s="7">
-        <v>1213</v>
+        <v>268</v>
       </c>
       <c r="I36" s="7">
-        <v>782181</v>
+        <v>125442</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
-        <v>1726</v>
+        <v>361</v>
       </c>
       <c r="N36" s="7">
-        <v>1246739</v>
+        <v>179763</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,49 +3172,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>76701</v>
+        <v>6305</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I37" s="7">
-        <v>125037</v>
+        <v>12306</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="N37" s="7">
-        <v>201738</v>
+        <v>18611</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,63 +3223,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>454</v>
+      </c>
+      <c r="D38" s="7">
+        <v>280224</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>867</v>
+      </c>
+      <c r="I38" s="7">
+        <v>419645</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1321</v>
+      </c>
+      <c r="N38" s="7">
+        <v>699869</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1285</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1600317</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1530</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1077472</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2815</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2677789</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1496</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1344552</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2415</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1754527</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" s="7">
+        <v>3911</v>
+      </c>
+      <c r="N40" s="7">
+        <v>3099078</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>513</v>
+      </c>
+      <c r="D41" s="7">
+        <v>432223</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1213</v>
+      </c>
+      <c r="I41" s="7">
+        <v>704641</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1726</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1136864</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>73</v>
+      </c>
+      <c r="D42" s="7">
+        <v>72342</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H42" s="7">
+        <v>184</v>
+      </c>
+      <c r="I42" s="7">
+        <v>114230</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" s="7">
+        <v>257</v>
+      </c>
+      <c r="N42" s="7">
+        <v>186572</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3367</v>
       </c>
-      <c r="D38" s="7">
-        <v>3375151</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3449434</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5342</v>
       </c>
-      <c r="I38" s="7">
-        <v>3795523</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3650870</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8709</v>
       </c>
-      <c r="N38" s="7">
-        <v>7170674</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>267</v>
+      <c r="N43" s="7">
+        <v>7100303</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
